--- a/scripts/maui_topics.xlsx
+++ b/scripts/maui_topics.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srikanth/dev/chimple/maui/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B544E6-BB39-8E4F-89F8-838D34A68AD1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4122A1-AA65-5E49-93F7-DF3A6F0F9761}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="460" windowWidth="15640" windowHeight="16160" xr2:uid="{923C0303-3085-0A4F-97FA-EF093955F0A8}"/>
+    <workbookView xWindow="5900" yWindow="460" windowWidth="22900" windowHeight="16160" xr2:uid="{923C0303-3085-0A4F-97FA-EF093955F0A8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="card" sheetId="1" r:id="rId1"/>
+    <sheet name="cardExtra" sheetId="2" r:id="rId2"/>
+    <sheet name="collection" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="180">
   <si>
     <t>topic</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>id</t>
@@ -351,6 +350,311 @@
   </si>
   <si>
     <t>main</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>lion_roar</t>
+  </si>
+  <si>
+    <t>Make a lion roar</t>
+  </si>
+  <si>
+    <t>lion.png</t>
+  </si>
+  <si>
+    <t>Select one of the images of the lion. Then record yourself roar. Select a mouth from the chocies</t>
+  </si>
+  <si>
+    <t>lion_draw</t>
+  </si>
+  <si>
+    <t>Draw a lion</t>
+  </si>
+  <si>
+    <t>Draw a lion and color it. Make it amazing!</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Panthera_tigris_tigris.jpg</t>
+  </si>
+  <si>
+    <t>Their speed and agility give the tiger the title of "Top Predator," over the larger but slower grizzly bear. The tiger is the largest and most powerful cat species living today. A well rounded athlete, the tiger can climb (though not well), swim, leap great distances and pull with five times the force of a strong human. The tiger is in the same group (Genus Panthera) as lions, leopards, and jaguars. These four cats are the only ones who can roar. The tiger's roar is not like the full-voiced roar of a lion, but more like a sentence of snarly, shouted words.</t>
+  </si>
+  <si>
+    <t>tiger_live</t>
+  </si>
+  <si>
+    <t>Where do tigers live?</t>
+  </si>
+  <si>
+    <t>Tigers.png</t>
+  </si>
+  <si>
+    <t>Tigers live in forests and grasslands of eastern and southeastern Asia. They live in countries such as Bangladesh, Bhutan, China, India, Nepal, Cambodia, Laos, Malaysia, Myanmar, Thailand and Vietnam, Indonesia (Sumatra), and the Russian Far East. The Bengal Tiger is the national animal of Bangladesh and India.</t>
+  </si>
+  <si>
+    <t>tiger_look</t>
+  </si>
+  <si>
+    <t>What do tigers look like?</t>
+  </si>
+  <si>
+    <t>tiger-2341920_960_720.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like the other big cats, tigers are built much like the much smaller domestic cats that people often have as pets; they are just much bigger and more powerful.
+Tigers are usually orange or reddish orange with very bold, uneven black stripes and white areas on the chest, neck, belly and inside of the legs. Their stripes act as camouflage, making it difficult for them to be seen when they are among the trees and shrubs of the jungle. The stripes will vary with each individual tiger.
+A tiger usually is about 6 ft to 9 ft in length from nose to tail tip. A large tiger might be 10 ft (3 meters) long. The tail is about 36 inches (91 cm or 3 ft). Tigers weigh about 350 to 550 pounds (160 to 250 kg).
+Tigers have very strong teeth and jaws. Their paws are soft and heavily padded, sheathing large, very sharp claws. They also have short, thick, and soft fur and thick long whiskers.
+</t>
+  </si>
+  <si>
+    <t>tiger_white</t>
+  </si>
+  <si>
+    <t>White tigers</t>
+  </si>
+  <si>
+    <t>White_tigers_drinking.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White tigers are those who are born with a certain genetic defect causing loss of pigment in their skin, eyes and fur. These tigers can be white with black, grey, very dark blue, or no stripes; they are not albino. This loss of pigment is unfortunate for tigers in the wild because their camouflage becomes inadequate. </t>
+  </si>
+  <si>
+    <t>tiger_eat</t>
+  </si>
+  <si>
+    <t>What do tigers eat?</t>
+  </si>
+  <si>
+    <t>1024px-Tigergebiss.jpg</t>
+  </si>
+  <si>
+    <t>Tigers mostly feed on plant-eaters, or herbivores, like elk, deer, wild pigs, and buffalo. Like the majority of cats, they are solitary hunters, meaning they hunt alone. When a tiger has spotted its prey, it may seek out a good location where it can hide, staying close to the ground, and wait for the perfect moment to pounce and ambush its prey. But when prey becomes scarce tigers also hunt peacocks and rabbits. Resourceful as they are, they also catch and eat fish, as tigers are good swimmers.</t>
+  </si>
+  <si>
+    <t>tiger_fun_facts</t>
+  </si>
+  <si>
+    <t>Tigerwater_edit2.jpg</t>
+  </si>
+  <si>
+    <t>* Tigers are striped through and through. If you were to shave a tiger, and few ever have, you would see the stripes on the skin.
+* Tigers are superb swimmers, unlike most other cats. They have been known to board fishing boats from the waters in which they swim. Usually they swim because they want to cool off.
+* No two tigers have exactly the same pattern of stripes.
+* The Siberian tiger is the world's largest naturally occurring cat.
+* A tiger was once measured to be 13 feet long.
+* Although the tiger is best known for killing with its jaws and teeth, a tiger is strong enough (like bears) to kill animals as large as cattle with a swipe of its paw.
+* A tiger named Shere Khan is the arch-villain of Rudyard Kipling's The Jungle Book as the nemesis of the man-cub" Mowgli.
+* A Bengal tiger named "Richard Parker" is a key character in the novel (and highly-successful movie) "The Life of Pi" who must share a boat with a young man cast adrift at sea after the sinking of a ship during a hurricane."</t>
+  </si>
+  <si>
+    <t>tiger_stripes</t>
+  </si>
+  <si>
+    <t>Draw stripes on a tiger</t>
+  </si>
+  <si>
+    <t>baby_tiger.png</t>
+  </si>
+  <si>
+    <t>Draw colorful stripes on the tiger. Do not limit yourself to orange!</t>
+  </si>
+  <si>
+    <t>tiger_roar</t>
+  </si>
+  <si>
+    <t>Make a tiger roar</t>
+  </si>
+  <si>
+    <t>tiger-1395131_960_720.png</t>
+  </si>
+  <si>
+    <t>quiz</t>
+  </si>
+  <si>
+    <t>tiger_countries</t>
+  </si>
+  <si>
+    <t>Select the countries where tigers are found</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>tiger_small_big</t>
+  </si>
+  <si>
+    <t>Select the animals from small to big</t>
+  </si>
+  <si>
+    <t>jungle-animals-colorful-art.jpg</t>
+  </si>
+  <si>
+    <t>tiger_fur_color</t>
+  </si>
+  <si>
+    <t>What is the color of the tiger's fur?</t>
+  </si>
+  <si>
+    <t>Flickr_-_law_keven_-_Tiger,_Tiger,_Burning_bright.jpg</t>
+  </si>
+  <si>
+    <t>oneAtATime</t>
+  </si>
+  <si>
+    <t>tiger_body_parts</t>
+  </si>
+  <si>
+    <t>Match the body parts with the adjective</t>
+  </si>
+  <si>
+    <t>tiger_sleep.jpeg</t>
+  </si>
+  <si>
+    <t>pair</t>
+  </si>
+  <si>
+    <t>tiger_swimmer</t>
+  </si>
+  <si>
+    <t>Tigers are superb swimmers</t>
+  </si>
+  <si>
+    <t>24868494306_84d2fd285b_b.jpg</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>tiger cub</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>deer</t>
+  </si>
+  <si>
+    <t>buffalo</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>violet</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>fur</t>
+  </si>
+  <si>
+    <t>striped</t>
+  </si>
+  <si>
+    <t>jaws</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>paws</t>
+  </si>
+  <si>
+    <t>soft</t>
+  </si>
+  <si>
+    <t>claws</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>whiskers</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>309914.svg</t>
+  </si>
+  <si>
+    <t>2722150-3f51b5.svg</t>
+  </si>
+  <si>
+    <t>Tiger_clipart.svg</t>
+  </si>
+  <si>
+    <t>animal-animal-photography-big-cat-792381.jpg</t>
+  </si>
+  <si>
+    <t>Siberischer_tiger_de_edit02.jpg</t>
+  </si>
+  <si>
+    <t>tiger-2519637_960_720.jpg</t>
+  </si>
+  <si>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Draw a picture of a tiger and add a roar on it</t>
   </si>
 </sst>
 </file>
@@ -406,15 +710,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -731,555 +1039,1175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4347587-5860-5840-846F-B3CE617B1DE6}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="168.33203125" style="2" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="25.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="168.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="38" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="76" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="190" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="209" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="152" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="152" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="361" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8034C939-9AFF-ED44-B176-BDE8F22B94DD}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2507BE9B-3D15-4E46-9A86-09456A2C09B1}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="38" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="76" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="190" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="209" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="152" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="152" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="361" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" t="s">
-        <v>46</v>
-      </c>
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scripts/maui_topics.xlsx
+++ b/scripts/maui_topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srikanth/dev/chimple/maui/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4122A1-AA65-5E49-93F7-DF3A6F0F9761}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1D0D89-DBEA-5546-B30C-21A703254B90}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5900" yWindow="460" windowWidth="22900" windowHeight="16160" xr2:uid="{923C0303-3085-0A4F-97FA-EF093955F0A8}"/>
   </bookViews>
@@ -1041,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4347587-5860-5840-846F-B3CE617B1DE6}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/scripts/maui_topics.xlsx
+++ b/scripts/maui_topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srikanth/dev/chimple/maui/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1D0D89-DBEA-5546-B30C-21A703254B90}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E69D65D-F1BE-8845-BAFA-909D0F78DCDC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5900" yWindow="460" windowWidth="22900" windowHeight="16160" xr2:uid="{923C0303-3085-0A4F-97FA-EF093955F0A8}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="181">
   <si>
     <t>topic</t>
   </si>
@@ -655,6 +655,9 @@
   </si>
   <si>
     <t>Draw a picture of a tiger and add a roar on it</t>
+  </si>
+  <si>
+    <t>Main</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4347587-5860-5840-846F-B3CE617B1DE6}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1387,272 +1390,302 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1660,16 +1693,16 @@
         <v>125</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1677,31 +1710,31 @@
         <v>144</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -1709,32 +1742,32 @@
         <v>176</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -1742,7 +1775,7 @@
         <v>144</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -1750,7 +1783,7 @@
         <v>144</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -1758,7 +1791,7 @@
         <v>144</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -1766,24 +1799,15 @@
         <v>144</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -1791,177 +1815,442 @@
         <v>144</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>178</v>
+        <v>95</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/maui_topics.xlsx
+++ b/scripts/maui_topics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srikanth/dev/chimple/maui/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E69D65D-F1BE-8845-BAFA-909D0F78DCDC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E48AB1-9B3A-7A4D-8546-860A2723EFE8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="460" windowWidth="22900" windowHeight="16160" xr2:uid="{923C0303-3085-0A4F-97FA-EF093955F0A8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28100" windowHeight="16160" xr2:uid="{923C0303-3085-0A4F-97FA-EF093955F0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="card" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="183">
   <si>
     <t>topic</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Lion</t>
-  </si>
-  <si>
-    <t>Lion_waiting_in_Namibia.jpg</t>
   </si>
   <si>
     <t>article</t>
@@ -211,15 +208,9 @@
     <t>Giraffe</t>
   </si>
   <si>
-    <t>animals-2870416_960_720.jpg</t>
-  </si>
-  <si>
     <t>bear</t>
   </si>
   <si>
-    <t>Bear</t>
-  </si>
-  <si>
     <t>Zebra</t>
   </si>
   <si>
@@ -256,18 +247,9 @@
     <t>Elephant</t>
   </si>
   <si>
-    <t>Rhinoceros</t>
-  </si>
-  <si>
     <t>Panda</t>
   </si>
   <si>
-    <t>bear.jpg</t>
-  </si>
-  <si>
-    <t>zebra-1422083_960_720.jpg</t>
-  </si>
-  <si>
     <t>leopard-1422074_960_720.jpg</t>
   </si>
   <si>
@@ -275,12 +257,6 @@
   </si>
   <si>
     <t>squirrel.jpeg</t>
-  </si>
-  <si>
-    <t>10006-an-elephant-in-the-wild-pv.jpg</t>
-  </si>
-  <si>
-    <t>indian_rhino_by_8twilightangel8-d6ffwyv.jpg</t>
   </si>
   <si>
     <t>panda.jpeg</t>
@@ -658,6 +634,36 @@
   </si>
   <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>lion.svg</t>
+  </si>
+  <si>
+    <t>giraffe.svg</t>
+  </si>
+  <si>
+    <t>zebra.svg</t>
+  </si>
+  <si>
+    <t>Antelope</t>
+  </si>
+  <si>
+    <t>antelope</t>
+  </si>
+  <si>
+    <t>antelope.svg</t>
+  </si>
+  <si>
+    <t>elephant.svg</t>
+  </si>
+  <si>
+    <t>Hippo</t>
+  </si>
+  <si>
+    <t>hippo</t>
+  </si>
+  <si>
+    <t>hippo.svg</t>
   </si>
 </sst>
 </file>
@@ -1042,15 +1048,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4347587-5860-5840-846F-B3CE617B1DE6}">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="37.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
     <col min="4" max="4" width="25.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="168.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="2"/>
@@ -1058,22 +1066,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1087,177 +1095,177 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="38" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="76" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="190" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="209" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="152" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="152" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="361" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -1269,13 +1277,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1283,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1297,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1311,13 +1319,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1325,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1339,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1353,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1367,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>58</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1381,13 +1389,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1395,862 +1403,846 @@
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>158</v>
+        <v>117</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>168</v>
+        <v>117</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>178</v>
+        <v>53</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>2</v>
+        <v>73</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2270,13 +2262,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2296,205 +2288,205 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1"/>
     </row>

--- a/scripts/maui_topics.xlsx
+++ b/scripts/maui_topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srikanth/dev/chimple/maui/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E48AB1-9B3A-7A4D-8546-860A2723EFE8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449F0F90-430E-BE43-A3AA-2D1D686E5335}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28100" windowHeight="16160" xr2:uid="{923C0303-3085-0A4F-97FA-EF093955F0A8}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="181">
   <si>
     <t>topic</t>
   </si>
@@ -531,9 +531,6 @@
     <t>India</t>
   </si>
   <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -564,18 +561,9 @@
     <t>green</t>
   </si>
   <si>
-    <t>violet</t>
-  </si>
-  <si>
     <t>pink</t>
   </si>
   <si>
-    <t>fur</t>
-  </si>
-  <si>
-    <t>striped</t>
-  </si>
-  <si>
     <t>jaws</t>
   </si>
   <si>
@@ -664,6 +652,12 @@
   </si>
   <si>
     <t>hippo.svg</t>
+  </si>
+  <si>
+    <t>Most of Bangladesh is covered by the Bengal Delta, the largest delta on Earth. The country has 700 rivers and 8,046 km (5,000 mi) of inland waterways. Highlands with evergreen forests are found in the northeastern and southeastern regions of the country. Bangladesh has many islands and a coral reef. The longest unbroken sea beach of the world, Cox's Bazar Beach, is located in the southeast. It is home to the Sundarbans, the largest mangrove forest in the world. The country's biodiversity includes a vast array of plant and wildlife, including endangered Bengal tigers, the national animal.</t>
+  </si>
+  <si>
+    <t>The Greeks and Romans identified the region as Gangaridai, a powerful kingdom of the historical Indian subcontinent, in the 3rd century BCE. Archaeological research has unearthed several ancient cities in Bangladesh, which enjoyed international trade links for millennia.[15] The Bengal Sultanate and Mughal Bengal transformed the region into a cosmopolitan Islamic imperial power between the 14th and 18th centuries. The region was home to many principalities that made use of their inland naval prowess</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4347587-5860-5840-846F-B3CE617B1DE6}">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1095,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1283,7 +1277,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1291,13 +1285,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1311,7 +1305,7 @@
         <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1367,7 +1361,7 @@
         <v>42</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1375,13 +1369,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1434,26 +1428,26 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1470,31 +1464,31 @@
         <v>116</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1612,7 +1606,7 @@
         <v>136</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1620,7 +1614,7 @@
         <v>136</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1628,23 +1622,23 @@
         <v>136</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1669,7 +1663,7 @@
         <v>136</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1677,7 +1671,7 @@
         <v>136</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1685,7 +1679,7 @@
         <v>136</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1693,7 +1687,7 @@
         <v>136</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1718,31 +1712,31 @@
         <v>136</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -1767,7 +1761,7 @@
         <v>136</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -1775,7 +1769,7 @@
         <v>136</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -1783,7 +1777,7 @@
         <v>136</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -1791,7 +1785,7 @@
         <v>136</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -1799,7 +1793,7 @@
         <v>136</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -1807,7 +1801,7 @@
         <v>136</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -1815,7 +1809,7 @@
         <v>136</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -1823,7 +1817,7 @@
         <v>136</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -1831,7 +1825,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -1839,7 +1833,7 @@
         <v>136</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -1864,15 +1858,15 @@
         <v>136</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -1910,7 +1904,7 @@
         <v>87</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1958,7 +1952,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2042,7 +2036,7 @@
         <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2080,7 +2074,7 @@
         <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2142,7 +2136,7 @@
         <v>87</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2164,7 +2158,7 @@
         <v>87</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2188,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>73</v>
